--- a/StoreManagement.Website/obj/Release/Package/PackageTmp/Resource/ExportedTemplate/InventoryProduct.xlsx
+++ b/StoreManagement.Website/obj/Release/Package/PackageTmp/Resource/ExportedTemplate/InventoryProduct.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:E1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
